--- a/data/hotels_by_city/Dallas/Dallas_shard_175.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_175.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Cathy L</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>KSDS1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r569978279-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,6 +258,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>707chancew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r550491969-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -279,6 +288,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>JodicSherrod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r544876935-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -297,6 +309,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>803bonz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r543391773-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +324,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>T6312DFashleyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r537751229-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Jack G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r531531006-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t xml:space="preserve">Sink faucet and curtains were in need of repair.  Paint peeling from walls.  General upkeep of the room was very poor.  </t>
   </si>
   <si>
+    <t>329amlohch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r514956179-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>ronny m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r510452828-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>This hotel is in a big drug-infested area do not even think about getting a room here the owners or crooked and will try to screw you in a heartbeat let me back that up by showing you what they tried to do to me.... I checked in as a diamond member with an early check-in 9:30 in the morning and I want you to know they knocked on my door at 11 and told me I had to check out I said I just got here they said they didn't care check-out time is 11 I said you got to be kidding me.... So I close the door thinking they would come to their senses next thing I know the police knock on the door tell me I have to leave I said can I show you something officer he said yes. I got out the invoice receipt that the showed me that I had to be out of the hotel and I said look at the dates sir every Hotel check-in and check-out is a 2 date deal.... Now I'm going to give you the picture of the invoice receipt that they tried to get me out of the hotel with.... notice the dates on this invoice...... ☠️STAY AWAY...STAY AWAY....More</t>
   </si>
   <si>
+    <t>kameronh357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r508224930-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
     <t>First When I was checked in. They guy named Jaime didn't greet us just looked at us and said what. We were charged a hundred dollars extra from our booking wasn't happy about that, The curtain look like it had blood on them and didn't close all the way. There was a empty roll of toilet paper in the restroom. The bed had burn marks on them. Room key stopped working and the Jaime guy was being rude and said don't put it by your cell phone! OUR ROOM WAS CLEANED TWICE OUT OF NINE DAYS!! HAD TO BEG FOR CLEAN TOWELS AND WOULDT GET ANY EVERYDAY THE NIGHT LADY WOULD SAY IT WOULD BE CLEAN TOMORROW!!!! I NEVER STAYED IN A HORRIBLE HOTEL WOULD NOT RECOMMEND TO ANYBODY!!!!!! Wish I can put 0 stars instead in 1!More</t>
   </si>
   <si>
+    <t>Arthur M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r503315985-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>The area under the sink had mold. They try to cover it up by putting carpet on wall. Some of it was coming off and you can see all the mold behind the carpet. Tub needed refinishing. Restroom floor were poor quality.</t>
   </si>
   <si>
+    <t>403georgez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r495648243-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Taysbrittany15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r494572626-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>06/20/2017</t>
   </si>
   <si>
+    <t>latoyar160</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r493859669-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,6 +495,9 @@
     <t>06/17/2017</t>
   </si>
   <si>
+    <t>charlesa999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r493047413-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>06/14/2017</t>
   </si>
   <si>
+    <t>79mrc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r492953224-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,6 +522,9 @@
     <t xml:space="preserve">The suites need urgent renovation and repair (incl. fixing). In addition one room shown to us was not properly cleaned. The linens have already holes! </t>
   </si>
   <si>
+    <t>Damita M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r490079839-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>81jammief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r482479935-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +555,9 @@
     <t>Yes these are very nice rooms, and I would love to come back soon, I slept well, and I would tell friends about this company</t>
   </si>
   <si>
+    <t>Verse316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r481723694-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -513,6 +570,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Andrew J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r476226131-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -528,6 +588,9 @@
     <t>The only things I would like to see improved are a faster wireless network connection and additional tv channel choices.</t>
   </si>
   <si>
+    <t>roberthG5477CE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r475298330-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,6 +606,9 @@
     <t>It looked nothing like the on-line picture. The tv signal was terrible. Not a single channel was clear. The tv was super small. The telephone didn't work. I was very disappointed.</t>
   </si>
   <si>
+    <t>J7872CFbrianm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r470659648-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -555,6 +621,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>shawntalb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r467308161-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,6 +639,9 @@
     <t xml:space="preserve">Overall the experience was good. Customer service was very good and definitely price was affordable. Room amendments like coffee maker was poor. The parking was not comfortable due to lack of parking spots and the area had a lot of riff raff. </t>
   </si>
   <si>
+    <t>785shawnak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r466346064-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -588,6 +660,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>RENIE D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r463504981-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +672,9 @@
     <t>02/28/2017</t>
   </si>
   <si>
+    <t>T2886WHkevink</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r463388915-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -612,6 +690,9 @@
     <t>I really liked thie cleanliness and amenities of the room for the price I booked online but the manager was rude about a friend staying a few minutes in the room after helping my wife and I (move) in...</t>
   </si>
   <si>
+    <t>krcorbin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r452773540-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,6 +711,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>798deanw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r452174195-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -639,6 +723,9 @@
     <t>01/15/2017</t>
   </si>
   <si>
+    <t>Ben J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r449397524-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -648,6 +735,9 @@
     <t>01/04/2017</t>
   </si>
   <si>
+    <t>karenwC474VU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r436854482-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -660,6 +750,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>U3637HZbrians</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r429343694-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -690,6 +783,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>biggroy225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r415789803-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,12 +798,18 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>mani1983345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r415747626-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>415747626</t>
   </si>
   <si>
+    <t>W1454HLbrendar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r410790861-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +822,9 @@
     <t>This motel was an excellent choice for the money. Very clean; lovely grassy area in back by the pool; good location; comfortable beds; great AC. Would definitely stay there again!</t>
   </si>
   <si>
+    <t>James E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r402247395-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,6 +846,9 @@
     <t>The room was not what I would ever expect of a Days Inn.  For starters, several people were hanging out outside their rooms throughout the motel all night.  The safety chain on the room door was broken and the fire alarm was disconnected and laying on top of the microwave.  The comforter had burn spots in it and the room smelled musky.  The bath room had repairs in the walls and stains in the ceiling.  I did not feel safe at the hotel and was glad it was just myself and not my family.  There are a few other hotels in the area that are much nicer for the same price.  It's not the worst hotel I've ever stayed at, but it's close.More</t>
   </si>
   <si>
+    <t>robertgK7801BQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r365418827-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -759,6 +867,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>alyda10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r364921545-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -774,6 +885,9 @@
     <t xml:space="preserve">Could use some updating but staff was really nice, room was clean and we slept well. Rates were super reasonable as well. We arrived after 11pm and the front desk had everything ready for us to go so we didn't have to wait long. Overall it's a good place to stay and if we are in that area again we will most likely stay there.  </t>
   </si>
   <si>
+    <t>peggyw171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r357614433-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +906,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Jerry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r355038422-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -819,6 +936,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>700coling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r340349743-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -831,6 +951,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Nadine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r333337663-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,6 +966,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Billy R Mr T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r323056432-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -855,6 +981,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>I1941EHjamesp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r316175823-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +996,9 @@
     <t>Clean room, comfortable mattress. Room had microwave and refrigerator. Front desk fixed both a minor error on reservation (changed my smoking reservation to non-smoking - I don't smoke, this is 2015!) and reprinted a receipt for me. I'll stay here again.</t>
   </si>
   <si>
+    <t>christinecO7135HC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r312841761-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1017,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>bobanddinah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r310308828-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -894,6 +1029,9 @@
     <t>09/14/2015</t>
   </si>
   <si>
+    <t>U1274QTkatiec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r304537712-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1044,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Taibabie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r292769589-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -924,12 +1065,18 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Lori A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r292651400-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>292651400</t>
   </si>
   <si>
+    <t>sondraj493</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r291785382-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1098,9 @@
     <t>They cancelled my room and even said that to me. Offered to give me same rate but charged me full rate. No wifi cause our room was to far from their router. When i talked with manager next morning on charge he discounted my room but not to my prebook fee and when i got my cc statement he charged me twice. When i called him to fix my double charge he said he didnt have me in their computerstaying there and there was nothing he could do. Called my cc and they have filled claim on them. Both my kids play select soft/baseball and we stay in a lot of hotels and this is the first one i just hadto review! More</t>
   </si>
   <si>
+    <t>Russell A Mr R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r286578634-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1110,9 @@
     <t>07/07/2015</t>
   </si>
   <si>
+    <t>Corbin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r280472261-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1122,9 @@
     <t>06/15/2015</t>
   </si>
   <si>
+    <t>Terrysaurus P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r279820417-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1152,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Pat D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r278599428-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1170,9 @@
     <t>My husband slipped and fell in wet paint on a sidewalk.  No signage only  3 orange cones randomly placed in in the area. Manager said he had "cones" up so he was not liable!  Husband has consulted with an attorney.</t>
   </si>
   <si>
+    <t>anitam469</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r274912102-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1026,6 +1188,9 @@
     <t>We stayed here last year also.  Had no problems either time. People were quite friendly and courteous. Rooms were clean. We will stay there next year when we stay in Ft. Worth.</t>
   </si>
   <si>
+    <t>Joan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r261522534-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1209,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r260193531-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1227,9 @@
     <t xml:space="preserve">Accommodations were nice, clean, front desk personnel very accommodating, and courteous.  Purchased on line thru Days Inn website, two weeks in advance - called day before to confirm - all okay.  </t>
   </si>
   <si>
+    <t>Donna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r254923017-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1248,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Gillian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r249791207-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1269,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>darrelu2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r242340616-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1293,9 @@
     <t>11/09/2014</t>
   </si>
   <si>
+    <t>modupeo499</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r238520987-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1314,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>rabbitdiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r238471906-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1329,9 @@
     <t xml:space="preserve">If you're traveling on a budget this is a decent option. The staff was nice but don't get any points for going g above and beyond. The room was clean but highly outdated and in need of some tlc. The beds were comfortable and pillows were sof. The hotel is situated in a quiet area with super easy access to the highway. </t>
   </si>
   <si>
+    <t>Satmo1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r236461567-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1350,9 @@
     <t>I was having to pick up a friend from the DFW airport and since we live 3 hrs away. We decided to get a room for the night and do something in the area before heading back the next day. Just make a fun filled weekend out of it. On Monday I called Wyndham Hotels and a giggling girl answered the phone. I told her I needed a room in Fort Worth, tx that was handicap accessible (since I'm in a wheelchair), nonsmoking and that was not far from downtown Fort Worth. She got me a hotel room with all the things I had asked for. She said she would email me my information, since I was driving this was perfect. After 3 hours and still not receiving the email, I called the number again and told the girl on the phone that I still hadn't received the email they were going to send me. The girl said "give me your confirmation number" I stated the girl did not give me one she was going to email it to me. She rudely said "did she not give it to you or did you just not write it down?" I said "no ma'am she did not give it to me". She rudely said "well we have a lot of hotels in Fort Worth and I wouldn't be able to find you reservation" every time I would ask her a question, to...I was having to pick up a friend from the DFW airport and since we live 3 hrs away. We decided to get a room for the night and do something in the area before heading back the next day. Just make a fun filled weekend out of it. On Monday I called Wyndham Hotels and a giggling girl answered the phone. I told her I needed a room in Fort Worth, tx that was handicap accessible (since I'm in a wheelchair), nonsmoking and that was not far from downtown Fort Worth. She got me a hotel room with all the things I had asked for. She said she would email me my information, since I was driving this was perfect. After 3 hours and still not receiving the email, I called the number again and told the girl on the phone that I still hadn't received the email they were going to send me. The girl said "give me your confirmation number" I stated the girl did not give me one she was going to email it to me. She rudely said "did she not give it to you or did you just not write it down?" I said "no ma'am she did not give it to me". She rudely said "well we have a lot of hotels in Fort Worth and I wouldn't be able to find you reservation" every time I would ask her a question, to help her find my reservation, she would just set there and not say anything. I would say "hello" she would extremely rudely say "yes ma'am" but then still not respond to what I was asking. So after this continuing I asked to speak with someone else that would actually help me. She even ruder said "yes ma'am" and stuck me on hold forever. I finally hung up and called back again. They answered right away. A guy answered this time and was about to find my reservation within 5 min. Emailed it to me as well. I called the hotel to ask about the handicap bathroom. He stated that they didn't have a handicap room. I told him that I had just booked a handicap room with them. He said "well you will have to call who ever you booked it with and cancel because we don't have a handicap room." I hung up and called Wyndham back once again. A guy answered and I explained my situation. He said "they have a handicap room because we would not have booked it for you if they did not." I stated "they are saying no and you are saying yes, what do I need to do?" He finally said he would place me on hold and call the hotel himself to see what was the problem. After waiting, the guy came back on and stated "the handicap room is under construction and is not available, did I want to cancel the room or keep it." I said "if the room...More</t>
   </si>
   <si>
+    <t>Victor H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r228014488-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1365,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Tessa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r226848490-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1185,6 +1377,9 @@
     <t>09/04/2014</t>
   </si>
   <si>
+    <t>Susan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r210811332-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1392,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Karrie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r209930349-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1404,9 @@
     <t>06/11/2014</t>
   </si>
   <si>
+    <t>Charles N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r205060928-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1419,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Tamara F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r203385297-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1449,9 @@
     <t>203371407</t>
   </si>
   <si>
+    <t>Scott D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r202215196-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1461,9 @@
     <t>04/22/2014</t>
   </si>
   <si>
+    <t>Gary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r201739000-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1473,9 @@
     <t>04/18/2014</t>
   </si>
   <si>
+    <t>CruisingMonkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r200720876-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1483,9 @@
   </si>
   <si>
     <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>James P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r200554025-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -1292,6 +1508,9 @@
 I was unable to access WiFi the entire weekend - all three nights we were stuck in this hotel.  There were no other rooms available in the area.  I am a fairly seasoned traveler, and know how to connect with WiFi... but the manager made it sound like it was my fault.  He would not come to help, nor find a help desk to try and help.  Sunday night, I called the front desk again.  The lady on the desk said she would call the manager and have him call me.  That never happened.  Thankfully, I have internet capability on my phone or we would have been completely incommunicado the entire weekend.  The staff was completely unhelpful.  Since I have an internet-based business, this was especially frustrating.  On checkout, I mentioned the WiFi issue to the manager, whose only comment was, "Nobody else reported a problem."  So it must have been my...The first thing we noticed was the odor in the room - old and musty.  The next thing was there are not nearly enough outlets for the 21st century.  I could plug in the microwave OR the coffee maker OR the refrigerator, but not all three.  The bedside lamps were unplugged, and the manager had to come help pull the bed away from the wall to get them plugged in behind the bed.  Forget plugging in the laptop... except to charge it on the outlet by the sink.  I was unable to access WiFi the entire weekend - all three nights we were stuck in this hotel.  There were no other rooms available in the area.  I am a fairly seasoned traveler, and know how to connect with WiFi... but the manager made it sound like it was my fault.  He would not come to help, nor find a help desk to try and help.  Sunday night, I called the front desk again.  The lady on the desk said she would call the manager and have him call me.  That never happened.  Thankfully, I have internet capability on my phone or we would have been completely incommunicado the entire weekend.  The staff was completely unhelpful.  Since I have an internet-based business, this was especially frustrating.  On checkout, I mentioned the WiFi issue to the manager, whose only comment was, "Nobody else reported a problem."  So it must have been my fault?  I think everyone else gave up and nobody else called!On Saturday morning, I left some coffee in the pot and the filter in the basket - just to see if it would be cleaned.  It was not.  When we returned that evening, there was the cold coffee in the pot and the old filter still in the basket.  Not much attention to detail on the part of the cleaning staff.  What was missing, though, was the full bottle of water I had left on the night stand.  I stay at a lot of Days Inns, and sometimes Super 8 if I need to.  One big thing I have noticed is a lack of consistency.  One will be very nice (Wichita West and Blue Springs, MO), and the next will be marginal (Ft Worth West and Overland Park, KS).  You never know what to really expect.  I may have to change chains for my business.More</t>
   </si>
   <si>
+    <t>Elizabeth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r200402308-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1520,9 @@
     <t>04/08/2014</t>
   </si>
   <si>
+    <t>Otoole9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r200062941-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1538,9 @@
     <t>We felt like we got a great deal for our money.  The room was clean, the bed was comfortable, the only complaint was the bathroom is small but for a short stay, who cares.  Clean and comfortable with a nice continental breakfast this is the place to stay.</t>
   </si>
   <si>
+    <t>305abc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r199897261-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1559,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Lonzetta G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r199572575-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1361,12 +1589,18 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Brian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r198954648-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>198954648</t>
   </si>
   <si>
+    <t>James B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r198812617-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1616,9 @@
     <t>the hotel was nice had internet fridge didn't work in either of two rooms i had but i also didnt mention it to see if they would bring a new one bed was comfortable...</t>
   </si>
   <si>
+    <t>Dan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r188494018-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1394,6 +1631,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Hypnogator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r187075954-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1673,9 @@
     <t>11/05/2013</t>
   </si>
   <si>
+    <t>Donna G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r183587095-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1688,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Terdal_Erik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r182257026-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1709,9 @@
     <t>My wife has stayed here before and picked it as close to where we had business, at the Will Rogers facility. Since her last stay, the rooms have been completely re-done. New, firm mattresses. Flat-screen TV (large). Refrigerator, microwave in room. Carpet, drapes, fixtures, also new since her last stay. Breakfast update: sausage patties; otherwise, standard breakfast fare of cereal, pastries and bread to toast. Minor complaints: WiFi slow: too slow for work. (Fine for email, Facebook.) Coffee not gourmet. Front desk could not credit stays with the frequent stay program despite saying they could (issue was wife used her name to register, but my name is on the account). Regardless, we will stay here again.More</t>
   </si>
   <si>
+    <t>Kathleen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r180621933-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1736,9 @@
     <t>My husband and I stay for a month every October. This time I found upgraded rooms with free Wi-Fi, new flat-screen TVs, king size beds with 5 fluffy pillows, new furniture and the separate shower/toilet and sink area set-up that I like. It also has room a/c-heaters that you can control yourself. A very good thing.The 30 freeway is handy and you can be in downtown Fort Worth in less than 15 mins. But the motel is situated such that there is very little, if any, freeway noise. They provide breakfast (and a USA Today) and the staff is friendly. What more could you want for the price?More</t>
   </si>
   <si>
+    <t>Debra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r177557533-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1499,6 +1751,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Tori O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r176646640-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1766,9 @@
     <t>We are 1000 miles from home so it was  important to find a safe comfortable place stay and we found it. The Days Inn Fort Worth West is a very clean and safe comfortable Inn. Love the staff, very friendly. A special thanks to Nilesh Jariwala, the manager of the Inn who was so helpful land kind. He is very knowledgeable about what to do and see in the area.The rooms are large clean and  new furniture. Great for pets too!  We recommend this for everyone. Thank you for a great stay.</t>
   </si>
   <si>
+    <t>Charles J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r171115711-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1781,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>George C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r166993042-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1802,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Samuel J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r166029900-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1553,6 +1817,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Jason E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r165808694-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1568,6 +1835,9 @@
     <t>II have stayed at this location before and it was ok. This time they have remodeled the room and they looked great! The new color and furniture was great.  I was happy with my room</t>
   </si>
   <si>
+    <t>Kookie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r165133871-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1577,6 +1847,9 @@
     <t>06/24/2013</t>
   </si>
   <si>
+    <t>Limarie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r163837458-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1865,9 @@
     <t xml:space="preserve">Hotel is in great location...Room nice and clean ...Fluffy new pillows... New appliances... Pool open 10-10 nice and clean..Hot breakfast and good varietyGreat customer serviceDidn't hear any noise besides my kids. </t>
   </si>
   <si>
+    <t>Randall G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r163259542-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1607,6 +1883,9 @@
     <t>Our room was clean but extremely noisy due to freeway traffic across the street; certainly not a place to stay if you want quiet. This was our first experience staying at a Day's Inn. The innkeeper at the desk was surly; certainly not welcoming to customers. There are no frills at this hotel; small rooms but they are clean. No breakfast served right now due to construction in lobby.</t>
   </si>
   <si>
+    <t>Douglas E A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r162582218-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1619,6 +1898,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Rolando R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r161723027-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1628,6 +1910,9 @@
     <t>05/24/2013</t>
   </si>
   <si>
+    <t>Molina F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r160022292-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1637,12 +1922,18 @@
     <t>05/07/2013</t>
   </si>
   <si>
+    <t>Donna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r160009580-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>160009580</t>
   </si>
   <si>
+    <t>Martha V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r155091771-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1655,6 +1946,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>JimCfmDenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r151170395-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1970,9 @@
     <t>Booked this hotel on Hotwire and called to request 2 beds because I was traveling with my 17 year old daughter.  Manager informed me that I get the worst rooms when I use an outside booking agent.  I am stuck with a smoking room and one bed.  He said there was nothing he could do and that I should not use Hotwire.  Translation he did not want to help me because I did not pay enough.  Does this man realize that he works in the hospitality business.  I will NEVER EVER STAY AT THIS HOTEL.  This guy was mean, nasty and rude.  Good luck on your business sir.  I guess you forgot who pays the bills.More</t>
   </si>
   <si>
+    <t>SUSAN M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r145547351-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1688,6 +1985,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>MrsBeek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r144852036-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1997,9 @@
     <t>11/07/2012</t>
   </si>
   <si>
+    <t>Momma B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r136175508-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1713,6 +2016,9 @@
   </si>
   <si>
     <t>August 2012</t>
+  </si>
+  <si>
+    <t>ethansmom06</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r133646910-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -1738,6 +2044,9 @@
 My orginal reservation was for 2 nights but I had to extend it to three due to my son being admitted to the hospital on short notice. I usually only stay here one night at a time and that's more than enough. One the first night, after bathing my son, I unfolded a towel only to find several long hairs in the towel. I have short, curly hair. A second towel was the same. A wash cloth had a mysterious reddish stain. The tub was badly stained, the bathroom floor was sticky and the crown molding around the door had holes and mold around the door frame. The only thing that worked was the toilet and it was very loud. The room has...I have stayed at this hotel several times since 2010 and while it's never been the Ritz, its usually clean and reasonably maintained. The previous poster was right....crickets EVERYWHERE and that is not an understatement. It was like a plauge of crickets. All over the sidewalks, parking lots, outside the rooms, in the breezeway going to the pool....I am not joking....they were EVERYWHERE. I left my car door open for just a few seconds and 5 crickets jumped in within seconds. What are not crickets are roaches. The couple next to me had to go out and buy bug spray to spray around their door and in their room just to be able to get some sleep.My orginal reservation was for 2 nights but I had to extend it to three due to my son being admitted to the hospital on short notice. I usually only stay here one night at a time and that's more than enough. One the first night, after bathing my son, I unfolded a towel only to find several long hairs in the towel. I have short, curly hair. A second towel was the same. A wash cloth had a mysterious reddish stain. The tub was badly stained, the bathroom floor was sticky and the crown molding around the door had holes and mold around the door frame. The only thing that worked was the toilet and it was very loud. The room has a fridge, coffee pot and microwave, however the second outlet could not be used because I was afraid of starting an electrical fire due to fact that it was severly damaged. I could only use the top outlet and plug in the fridge. If I wanted to use the micro, then I had to unplug the fridge....you get the picture. Major hassle. And very unsafe. The carpet had stains and I always remove the bedspreads  before i let my son in bed and this time was no exception. Dirty, stained bedspreads. Gross.The pool gate was padlocked when we arrived so I asked when it would reopen. The desk clerk said it would re open later as it had to be inspected after they added salt to it. It was indeed re opened later but it was very murky. I only let my son in the water because I had promised him but only for about 15 min.The wifi only worked on the first day and after that it wouldn't work no matter where in the room I moved to.I didn't eat breakfast because they won't allow you to take food back to your room. Also, an employee is sitting in the breakfast area writing down everything you put on your plate.  Guests are not even allowed to get a cup of coffee to go.I stay here only because it's close to the...More</t>
   </si>
   <si>
+    <t>olbuck44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r132490198-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1756,6 +2065,9 @@
     <t>I know it's not all the motel's fault, but we recently stayed at this location and were overrun by crickets.  I am not kidding but the crickets are of plague proportions right out of the Bible.  We killed at least 35 in our room and they kept coming.  Also, I guess the housekeeper must of thought we were hungry as they left some leftover potato chip crumbs all over the floor.  I know I'm trying to be funny, but in all seriousness this was one of the worst motels I've ever stayed at.  Our wakeup call was about 15 minutes late.  The shower did not work properly either.  Also, I've stayed in smoking rooms before (all was available for our stay), but this one smelled like a tobacco barn.  I've stayed at hundreds of cheap motels over the years and certainly do not have the highest of standards, but this was terrible.  We will definitely find another motel to stay at in Ft. Worth on our next visit.  You should too.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r127698694-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1774,6 +2086,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Txgurl76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r98424422-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1790,6 +2105,9 @@
   </si>
   <si>
     <t>February 2011</t>
+  </si>
+  <si>
+    <t>centexguy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r79275618-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -1813,6 +2131,9 @@
   <si>
     <t>This is hands down the worst hotel that I have ever stayed at. As someone who is generally in a hotel one or two times a month on business or pleasure, I know that not every hotel is a great one. We selected this one for the proximity to where we were staying, price, and the fact that we've never had any issues at a Days Inn. We checked in after 130am, and the front desk staff was rude and unhelpful. Upon getting to our room, the AC was not on (it was almost 100 degrees this day). I pulled out the mattress to plug in a charger and a roach fell off the boxspring. As I was getting ready to shower I noticed several more dead roaches on the floor near the sink. The toilet did not flush at all. The shower was stained, and the facets leaked. There was a big red stain on the carpet. When I got into the bed the sheets were a faded white and did not look clean or bleached. 
 After taking several hours to fall asleep in our clothes we woke up to a constant pounding on the door. The alarm clock didn't go off and we had overslept. It was 1050am. We told housekeeping we were checking out. At 11am she came back and knocked again and the front desk called telling us we needed to check out. When we returned...This is hands down the worst hotel that I have ever stayed at. As someone who is generally in a hotel one or two times a month on business or pleasure, I know that not every hotel is a great one. We selected this one for the proximity to where we were staying, price, and the fact that we've never had any issues at a Days Inn. We checked in after 130am, and the front desk staff was rude and unhelpful. Upon getting to our room, the AC was not on (it was almost 100 degrees this day). I pulled out the mattress to plug in a charger and a roach fell off the boxspring. As I was getting ready to shower I noticed several more dead roaches on the floor near the sink. The toilet did not flush at all. The shower was stained, and the facets leaked. There was a big red stain on the carpet. When I got into the bed the sheets were a faded white and did not look clean or bleached. After taking several hours to fall asleep in our clothes we woke up to a constant pounding on the door. The alarm clock didn't go off and we had overslept. It was 1050am. We told housekeeping we were checking out. At 11am she came back and knocked again and the front desk called telling us we needed to check out. When we returned the keys to the front desk we told them about the roaches and the fact that the toilet wouldn't flush. THe front desk clerk said "oh we'll look into it". No apologies or anything.You could offer me a free room for life at this roach motel, and I would never stay again.More</t>
+  </si>
+  <si>
+    <t>JBDC40</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d98836-r39191840-Days_Inn_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -2338,43 +2659,47 @@
       <c r="A2" t="n">
         <v>3068</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>64314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2388,50 +2713,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3068</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2445,7 +2774,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2458,35 +2787,35 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2510,7 +2839,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2523,22 +2852,22 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2546,10 +2875,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2570,9 +2899,6 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2584,37 +2910,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2638,50 +2964,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3068</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2705,7 +3035,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2718,22 +3048,22 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2741,10 +3071,10 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2765,51 +3095,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3068</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>129171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2833,35 +3164,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3068</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>129172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2869,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2893,51 +3228,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3068</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>129173</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2961,50 +3297,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3068</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>38456</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3028,7 +3368,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -3041,37 +3381,37 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3095,35 +3435,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3068</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>129174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3131,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3155,51 +3499,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3068</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>129175</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3213,50 +3558,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3068</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>129176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3280,50 +3629,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3068</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>40016</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3347,35 +3700,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3068</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>129177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -3383,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3407,36 +3764,37 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3068</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>129178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -3444,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3468,49 +3826,50 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3068</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>129179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -3534,48 +3893,52 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3068</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>129180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3599,50 +3962,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3068</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>129181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>150</v>
       </c>
-      <c r="L22" t="s">
-        <v>151</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>138</v>
-      </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3666,35 +4033,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3068</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>129182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3702,10 +4073,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3726,51 +4097,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3068</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>129183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3794,35 +4166,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3068</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>129184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3830,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3854,51 +4230,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3068</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7096</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3922,50 +4299,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3068</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>129185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3989,35 +4370,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3068</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>129186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4025,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4049,51 +4434,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3068</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>129187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4117,50 +4503,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3068</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>129188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4184,48 +4574,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3068</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>129189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>214</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4249,50 +4643,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3068</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>129190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>218</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4316,50 +4714,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3068</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>129191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4379,35 +4781,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3068</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>129192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4415,10 +4821,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4439,36 +4845,37 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3068</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>32606</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -4476,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -4500,36 +4907,37 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3068</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>129193</v>
+      </c>
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4537,10 +4945,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4561,51 +4969,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3068</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>129194</v>
+      </c>
+      <c r="C37" t="s">
+        <v>244</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="J37" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="K37" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4629,35 +5038,39 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3068</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>7096</v>
+      </c>
+      <c r="C38" t="s">
+        <v>184</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4665,10 +5078,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4689,36 +5102,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3068</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>129195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4726,10 +5140,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4750,49 +5164,50 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3068</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>129196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4816,50 +5231,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3068</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>129197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4883,50 +5302,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3068</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>21960</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="J42" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K42" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4940,50 +5363,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3068</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>129198</v>
+      </c>
+      <c r="C43" t="s">
+        <v>276</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="L43" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5007,50 +5434,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3068</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>129199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>283</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="K44" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5064,50 +5495,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3068</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>129200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>289</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="J45" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="K45" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="L45" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5131,35 +5566,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3068</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>18833</v>
+      </c>
+      <c r="C46" t="s">
+        <v>296</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5167,10 +5606,10 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5191,9 +5630,6 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5205,37 +5641,37 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="J47" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="K47" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="L47" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5259,35 +5695,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3068</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>129201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="J48" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -5295,10 +5735,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5319,36 +5759,37 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3068</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>129202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>311</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="J49" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5356,10 +5797,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -5380,36 +5821,37 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3068</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>129203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>316</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="J50" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5417,10 +5859,10 @@
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>2</v>
@@ -5441,51 +5883,52 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3068</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>129204</v>
+      </c>
+      <c r="C51" t="s">
+        <v>321</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="J51" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
       <c r="L51" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5505,50 +5948,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3068</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>129205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>326</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="J52" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5572,35 +6019,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3068</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>129206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>333</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5608,10 +6059,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="O53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5632,49 +6083,50 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3068</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>129207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>337</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="J54" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5698,50 +6150,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3068</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>129208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>342</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="J55" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="L55" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5765,35 +6221,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3068</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>23637</v>
+      </c>
+      <c r="C56" t="s">
+        <v>349</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5801,10 +6261,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5825,51 +6285,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3068</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>129209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>352</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="J57" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="K57" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="L57" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5893,48 +6354,52 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3068</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>129210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>360</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="J58" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5958,35 +6423,39 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3068</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>129211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>364</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="J59" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5994,10 +6463,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6018,36 +6487,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3068</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>129212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>368</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="J60" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6055,10 +6525,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6079,51 +6549,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3068</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>38456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="J61" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6143,50 +6614,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3068</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>3768</v>
+      </c>
+      <c r="C62" t="s">
+        <v>378</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="J62" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="K62" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="O62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6210,50 +6685,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3068</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>129213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>384</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="L63" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6277,50 +6756,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3068</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>59645</v>
+      </c>
+      <c r="C64" t="s">
+        <v>390</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="J64" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="L64" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="O64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6344,50 +6827,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3068</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C65" t="s">
+        <v>397</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="J65" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K65" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="O65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6411,50 +6898,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3068</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>10184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>403</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="J66" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="K66" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="O66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6478,50 +6969,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3068</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>94835</v>
+      </c>
+      <c r="C67" t="s">
+        <v>410</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="J67" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="O67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -6541,35 +7036,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3068</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>129214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>417</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="J68" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6577,10 +7076,10 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="O68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6601,36 +7100,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3068</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>38456</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="J69" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6638,10 +7138,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6662,51 +7162,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3068</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>129215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>425</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="J70" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="K70" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="L70" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="O70" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6730,50 +7231,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3068</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>129216</v>
+      </c>
+      <c r="C71" t="s">
+        <v>432</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="J71" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="K71" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6787,41 +7292,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3068</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>129217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>437</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="J72" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="K72" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="L72" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
@@ -6850,35 +7359,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3068</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>3876</v>
+      </c>
+      <c r="C73" t="s">
+        <v>444</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="J73" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6886,10 +7399,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="O73" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6910,36 +7423,37 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3068</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>129218</v>
+      </c>
+      <c r="C74" t="s">
+        <v>449</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="J74" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6947,10 +7461,10 @@
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6971,36 +7485,37 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3068</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C75" t="s">
+        <v>453</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="J75" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7008,10 +7523,10 @@
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="O75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7032,49 +7547,50 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3068</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>129219</v>
+      </c>
+      <c r="C76" t="s">
+        <v>458</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="J76" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="O76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -7098,35 +7614,39 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3068</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>76485</v>
+      </c>
+      <c r="C77" t="s">
+        <v>462</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="J77" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7134,10 +7654,10 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7158,51 +7678,52 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3068</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>35861</v>
+      </c>
+      <c r="C78" t="s">
+        <v>467</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="J78" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="K78" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="L78" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7224,7 +7745,7 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79">
@@ -7237,22 +7758,22 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="J79" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s"/>
@@ -7260,10 +7781,10 @@
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O79" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7284,36 +7805,37 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
-      <c r="W79" t="s"/>
-      <c r="X79" t="s"/>
-      <c r="Y79" t="s"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>3068</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>17257</v>
+      </c>
+      <c r="C80" t="s">
+        <v>477</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="J80" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -7321,10 +7843,10 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7345,36 +7867,37 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>3068</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C81" t="s">
+        <v>481</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
       <c r="J81" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7382,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7406,49 +7929,50 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>3068</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>129220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>485</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="J82" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7472,50 +7996,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>3068</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>489</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
       <c r="J83" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="K83" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="L83" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7539,35 +8067,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>3068</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>4214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>496</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="J84" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7575,10 +8107,10 @@
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7599,51 +8131,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>3068</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>129221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>500</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="J85" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="K85" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="L85" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7667,50 +8200,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>3068</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>129222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>506</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="J86" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="K86" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="L86" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -7734,35 +8271,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>3068</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>129223</v>
+      </c>
+      <c r="C87" t="s">
+        <v>513</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="J87" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7770,10 +8311,10 @@
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="O87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7794,51 +8335,52 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>3068</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>38456</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="J88" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="K88" t="s">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="L88" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7862,35 +8404,39 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>3068</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>6579</v>
+      </c>
+      <c r="C89" t="s">
+        <v>523</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="J89" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -7898,10 +8444,10 @@
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="O89" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -7922,51 +8468,52 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>3068</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>7151</v>
+      </c>
+      <c r="C90" t="s">
+        <v>526</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="J90" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="K90" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="L90" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="O90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7990,35 +8537,39 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>3068</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>21766</v>
+      </c>
+      <c r="C91" t="s">
+        <v>532</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="J91" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8026,10 +8577,10 @@
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="O91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8050,51 +8601,52 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>3068</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>129224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>537</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="J92" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="K92" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="L92" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="O92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="n">
@@ -8116,50 +8668,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>3068</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>38456</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="J93" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
       <c r="K93" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="L93" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8183,35 +8739,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>3068</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>21766</v>
+      </c>
+      <c r="C94" t="s">
+        <v>532</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="J94" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8219,10 +8779,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8243,36 +8803,37 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>3068</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C95" t="s">
+        <v>551</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>471</v>
+        <v>552</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="J95" t="s">
-        <v>473</v>
+        <v>554</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s"/>
@@ -8280,10 +8841,10 @@
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="O95" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8304,51 +8865,52 @@
       <c r="V95" t="n">
         <v>0</v>
       </c>
-      <c r="W95" t="s"/>
-      <c r="X95" t="s"/>
-      <c r="Y95" t="s"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>3068</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>129225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>556</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>476</v>
+        <v>558</v>
       </c>
       <c r="J96" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="K96" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="L96" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8372,50 +8934,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>3068</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>27916</v>
+      </c>
+      <c r="C97" t="s">
+        <v>563</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>481</v>
+        <v>564</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>482</v>
+        <v>565</v>
       </c>
       <c r="J97" t="s">
-        <v>483</v>
+        <v>566</v>
       </c>
       <c r="K97" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="L97" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8437,41 +9003,45 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="X97" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="Y97" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>3068</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>26550</v>
+      </c>
+      <c r="C98" t="s">
+        <v>572</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="J98" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s"/>
@@ -8479,10 +9049,10 @@
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="O98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8503,51 +9073,52 @@
       <c r="V98" t="n">
         <v>0</v>
       </c>
-      <c r="W98" t="s"/>
-      <c r="X98" t="s"/>
-      <c r="Y98" t="s"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>3068</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>129226</v>
+      </c>
+      <c r="C99" t="s">
+        <v>577</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="J99" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="K99" t="s">
         <v>10</v>
       </c>
       <c r="L99" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="O99" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8571,35 +9142,39 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>3068</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>18396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>582</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>497</v>
+        <v>583</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="J100" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -8607,10 +9182,10 @@
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="O100" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8631,51 +9206,52 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>3068</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>32838</v>
+      </c>
+      <c r="C101" t="s">
+        <v>587</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>501</v>
+        <v>588</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>502</v>
+        <v>589</v>
       </c>
       <c r="J101" t="s">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="K101" t="s">
-        <v>504</v>
+        <v>591</v>
       </c>
       <c r="L101" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
       <c r="O101" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -8699,48 +9275,52 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>3068</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>101174</v>
+      </c>
+      <c r="C102" t="s">
+        <v>594</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>508</v>
+        <v>596</v>
       </c>
       <c r="J102" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -8754,50 +9334,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>3068</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>15643</v>
+      </c>
+      <c r="C103" t="s">
+        <v>599</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>512</v>
+        <v>601</v>
       </c>
       <c r="J103" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="K103" t="s">
-        <v>514</v>
+        <v>603</v>
       </c>
       <c r="L103" t="s">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="O103" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -8821,48 +9405,52 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>515</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>3068</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>129227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>605</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>516</v>
+        <v>606</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="J104" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="O104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -8886,41 +9474,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>3068</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>72476</v>
+      </c>
+      <c r="C105" t="s">
+        <v>609</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>519</v>
+        <v>610</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>520</v>
+        <v>611</v>
       </c>
       <c r="J105" t="s">
-        <v>521</v>
+        <v>612</v>
       </c>
       <c r="K105" t="s">
-        <v>522</v>
+        <v>613</v>
       </c>
       <c r="L105" t="s">
-        <v>523</v>
+        <v>614</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
@@ -8949,50 +9541,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>523</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>3068</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>109085</v>
+      </c>
+      <c r="C106" t="s">
+        <v>615</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>524</v>
+        <v>616</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>525</v>
+        <v>617</v>
       </c>
       <c r="J106" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="K106" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s">
-        <v>528</v>
+        <v>620</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="O106" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9016,35 +9612,39 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>528</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>3068</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>129228</v>
+      </c>
+      <c r="C107" t="s">
+        <v>621</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>529</v>
+        <v>622</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>530</v>
+        <v>623</v>
       </c>
       <c r="J107" t="s">
-        <v>531</v>
+        <v>624</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -9052,10 +9652,10 @@
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9076,36 +9676,37 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="s"/>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>3068</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>129229</v>
+      </c>
+      <c r="C108" t="s">
+        <v>626</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="J108" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s"/>
@@ -9113,10 +9714,10 @@
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9137,36 +9738,37 @@
       <c r="V108" t="n">
         <v>0</v>
       </c>
-      <c r="W108" t="s"/>
-      <c r="X108" t="s"/>
-      <c r="Y108" t="s"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>3068</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>129230</v>
+      </c>
+      <c r="C109" t="s">
+        <v>630</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>536</v>
+        <v>631</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>537</v>
+        <v>632</v>
       </c>
       <c r="J109" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s"/>
@@ -9174,10 +9776,10 @@
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9198,49 +9800,50 @@
       <c r="V109" t="n">
         <v>0</v>
       </c>
-      <c r="W109" t="s"/>
-      <c r="X109" t="s"/>
-      <c r="Y109" t="s"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>3068</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>28171</v>
+      </c>
+      <c r="C110" t="s">
+        <v>634</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>539</v>
+        <v>635</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>540</v>
+        <v>636</v>
       </c>
       <c r="J110" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="O110" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P110" t="n">
         <v>3</v>
@@ -9264,35 +9867,39 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>3068</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>129231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>637</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>541</v>
+        <v>638</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="J111" t="s">
-        <v>543</v>
+        <v>640</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s"/>
@@ -9300,10 +9907,10 @@
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>544</v>
+        <v>641</v>
       </c>
       <c r="O111" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9324,51 +9931,52 @@
       <c r="V111" t="n">
         <v>0</v>
       </c>
-      <c r="W111" t="s"/>
-      <c r="X111" t="s"/>
-      <c r="Y111" t="s"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>3068</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>129232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>642</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="J112" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="K112" t="s">
-        <v>548</v>
+        <v>646</v>
       </c>
       <c r="L112" t="s">
-        <v>549</v>
+        <v>647</v>
       </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="s">
-        <v>550</v>
+        <v>648</v>
       </c>
       <c r="O112" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P112" t="n">
         <v>1</v>
@@ -9392,35 +10000,39 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>551</v>
+        <v>649</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>3068</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>129233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>650</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>553</v>
+        <v>652</v>
       </c>
       <c r="J113" t="s">
-        <v>554</v>
+        <v>653</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" t="s"/>
@@ -9428,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -9452,49 +10064,50 @@
       <c r="V113" t="n">
         <v>0</v>
       </c>
-      <c r="W113" t="s"/>
-      <c r="X113" t="s"/>
-      <c r="Y113" t="s"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>3068</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>129234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>655</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>556</v>
+        <v>656</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>557</v>
+        <v>657</v>
       </c>
       <c r="J114" t="s">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="K114" t="s"/>
       <c r="L114" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>555</v>
+        <v>654</v>
       </c>
       <c r="O114" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P114" t="n">
         <v>2</v>
@@ -9518,50 +10131,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>3068</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>64120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>659</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>559</v>
+        <v>660</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>560</v>
+        <v>661</v>
       </c>
       <c r="J115" t="s">
-        <v>561</v>
+        <v>662</v>
       </c>
       <c r="K115" t="s">
-        <v>562</v>
+        <v>663</v>
       </c>
       <c r="L115" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>564</v>
+        <v>665</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -9585,50 +10202,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>3068</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>129235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>666</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>565</v>
+        <v>667</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>566</v>
+        <v>668</v>
       </c>
       <c r="J116" t="s">
-        <v>567</v>
+        <v>669</v>
       </c>
       <c r="K116" t="s">
-        <v>568</v>
+        <v>670</v>
       </c>
       <c r="L116" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>570</v>
+        <v>672</v>
       </c>
       <c r="O116" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -9652,50 +10273,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>571</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>3068</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>129236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>674</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>572</v>
+        <v>675</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>573</v>
+        <v>676</v>
       </c>
       <c r="J117" t="s">
-        <v>574</v>
+        <v>677</v>
       </c>
       <c r="K117" t="s">
-        <v>575</v>
+        <v>678</v>
       </c>
       <c r="L117" t="s">
-        <v>576</v>
+        <v>679</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>570</v>
+        <v>672</v>
       </c>
       <c r="O117" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P117" t="n">
         <v>2</v>
@@ -9719,50 +10344,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>577</v>
+        <v>680</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>3068</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>681</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>578</v>
+        <v>682</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>579</v>
+        <v>683</v>
       </c>
       <c r="J118" t="s">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="K118" t="s">
-        <v>581</v>
+        <v>685</v>
       </c>
       <c r="L118" t="s">
-        <v>582</v>
+        <v>686</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="O118" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -9786,50 +10415,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>582</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>3068</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>129237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>688</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>584</v>
+        <v>689</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>585</v>
+        <v>690</v>
       </c>
       <c r="J119" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
       <c r="K119" t="s">
-        <v>587</v>
+        <v>692</v>
       </c>
       <c r="L119" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
       <c r="N119" t="s">
-        <v>589</v>
+        <v>694</v>
       </c>
       <c r="O119" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -9853,50 +10486,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>588</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>3068</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>129238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>695</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="J120" t="s">
-        <v>592</v>
+        <v>698</v>
       </c>
       <c r="K120" t="s">
-        <v>593</v>
+        <v>699</v>
       </c>
       <c r="L120" t="s">
-        <v>594</v>
+        <v>700</v>
       </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="s">
-        <v>595</v>
+        <v>701</v>
       </c>
       <c r="O120" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P120" t="n">
         <v>1</v>
@@ -9920,50 +10557,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>596</v>
+        <v>702</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>3068</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>129239</v>
+      </c>
+      <c r="C121" t="s">
+        <v>703</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>597</v>
+        <v>704</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>598</v>
+        <v>705</v>
       </c>
       <c r="J121" t="s">
-        <v>599</v>
+        <v>706</v>
       </c>
       <c r="K121" t="s">
-        <v>600</v>
+        <v>707</v>
       </c>
       <c r="L121" t="s">
-        <v>601</v>
+        <v>708</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
       </c>
       <c r="N121" t="s">
-        <v>602</v>
+        <v>709</v>
       </c>
       <c r="O121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -9987,7 +10628,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>603</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
